--- a/conditions_rotation.xlsx
+++ b/conditions_rotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PSYCHOPY\eyehand_baseline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4239673C-4A69-4116-9837-B2D7AEBC7FE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66AC59BD-B3ED-41EE-AE61-34FA3315D9BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="1815" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -400,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C81"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -859,446 +859,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>16</v>
-      </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>0</v>
-      </c>
-      <c r="B43">
-        <v>16</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>11.314</v>
-      </c>
-      <c r="B44">
-        <v>11.314</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>-11.314</v>
-      </c>
-      <c r="B45">
-        <v>11.314</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>-16</v>
-      </c>
-      <c r="B46">
-        <v>0</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>0</v>
-      </c>
-      <c r="B47">
-        <v>-16</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>-11.314</v>
-      </c>
-      <c r="B48">
-        <v>-11.314</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>11.314</v>
-      </c>
-      <c r="B49">
-        <v>-11.314</v>
-      </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>11.314</v>
-      </c>
-      <c r="B50">
-        <v>11.314</v>
-      </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>16</v>
-      </c>
-      <c r="B51">
-        <v>0</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>0</v>
-      </c>
-      <c r="B52">
-        <v>16</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>-16</v>
-      </c>
-      <c r="B53">
-        <v>0</v>
-      </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>-11.314</v>
-      </c>
-      <c r="B54">
-        <v>11.314</v>
-      </c>
-      <c r="C54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>-11.314</v>
-      </c>
-      <c r="B55">
-        <v>-11.314</v>
-      </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>0</v>
-      </c>
-      <c r="B56">
-        <v>-16</v>
-      </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>11.314</v>
-      </c>
-      <c r="B57">
-        <v>-11.314</v>
-      </c>
-      <c r="C57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>0</v>
-      </c>
-      <c r="B58">
-        <v>16</v>
-      </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>11.314</v>
-      </c>
-      <c r="B59">
-        <v>11.314</v>
-      </c>
-      <c r="C59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>16</v>
-      </c>
-      <c r="B60">
-        <v>0</v>
-      </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>-11.314</v>
-      </c>
-      <c r="B61">
-        <v>11.314</v>
-      </c>
-      <c r="C61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>-16</v>
-      </c>
-      <c r="B62">
-        <v>0</v>
-      </c>
-      <c r="C62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>-11.314</v>
-      </c>
-      <c r="B63">
-        <v>-11.314</v>
-      </c>
-      <c r="C63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>11.314</v>
-      </c>
-      <c r="B64">
-        <v>-11.314</v>
-      </c>
-      <c r="C64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>0</v>
-      </c>
-      <c r="B65">
-        <v>-16</v>
-      </c>
-      <c r="C65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>-11.314</v>
-      </c>
-      <c r="B66">
-        <v>11.314</v>
-      </c>
-      <c r="C66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>11.314</v>
-      </c>
-      <c r="B67">
-        <v>11.314</v>
-      </c>
-      <c r="C67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>0</v>
-      </c>
-      <c r="B68">
-        <v>16</v>
-      </c>
-      <c r="C68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>0</v>
-      </c>
-      <c r="B69">
-        <v>-16</v>
-      </c>
-      <c r="C69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>-16</v>
-      </c>
-      <c r="B70">
-        <v>0</v>
-      </c>
-      <c r="C70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>-11.314</v>
-      </c>
-      <c r="B71">
-        <v>-11.314</v>
-      </c>
-      <c r="C71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>16</v>
-      </c>
-      <c r="B72">
-        <v>0</v>
-      </c>
-      <c r="C72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>11.314</v>
-      </c>
-      <c r="B73">
-        <v>-11.314</v>
-      </c>
-      <c r="C73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>0</v>
-      </c>
-      <c r="B74">
-        <v>16</v>
-      </c>
-      <c r="C74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>11.314</v>
-      </c>
-      <c r="B75">
-        <v>11.314</v>
-      </c>
-      <c r="C75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>16</v>
-      </c>
-      <c r="B76">
-        <v>0</v>
-      </c>
-      <c r="C76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>-11.314</v>
-      </c>
-      <c r="B77">
-        <v>11.314</v>
-      </c>
-      <c r="C77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>-16</v>
-      </c>
-      <c r="B78">
-        <v>0</v>
-      </c>
-      <c r="C78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>0</v>
-      </c>
-      <c r="B79">
-        <v>-16</v>
-      </c>
-      <c r="C79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>11.314</v>
-      </c>
-      <c r="B80">
-        <v>-11.314</v>
-      </c>
-      <c r="C80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>-11.314</v>
-      </c>
-      <c r="B81">
-        <v>-11.314</v>
-      </c>
-      <c r="C81">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/conditions_rotation.xlsx
+++ b/conditions_rotation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PSYCHOPY\eyehand_baseline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66AC59BD-B3ED-41EE-AE61-34FA3315D9BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC8F056E-DE66-4779-A5DE-C1F293D74493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="1815" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="52695" yWindow="1935" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -402,8 +402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -421,7 +421,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -435,7 +435,7 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -443,10 +443,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>11.314</v>
+        <v>8.4849999999999994</v>
       </c>
       <c r="B4">
-        <v>11.314</v>
+        <v>8.4849999999999994</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -454,10 +454,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>-11.314</v>
+        <v>-8.4849999999999994</v>
       </c>
       <c r="B5">
-        <v>11.314</v>
+        <v>8.4849999999999994</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -465,7 +465,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>-16</v>
+        <v>-12</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -479,7 +479,7 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <v>-16</v>
+        <v>-12</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -487,10 +487,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>-11.314</v>
+        <v>-8.4849999999999994</v>
       </c>
       <c r="B8">
-        <v>-11.314</v>
+        <v>-8.4849999999999994</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -498,10 +498,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>11.314</v>
+        <v>8.4849999999999994</v>
       </c>
       <c r="B9">
-        <v>-11.314</v>
+        <v>-8.4849999999999994</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -509,10 +509,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>11.314</v>
+        <v>8.4849999999999994</v>
       </c>
       <c r="B10">
-        <v>11.314</v>
+        <v>8.4849999999999994</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -520,7 +520,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -534,7 +534,7 @@
         <v>0</v>
       </c>
       <c r="B12">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -542,7 +542,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>-16</v>
+        <v>-12</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -553,10 +553,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>-11.314</v>
+        <v>-8.4849999999999994</v>
       </c>
       <c r="B14">
-        <v>11.314</v>
+        <v>8.4849999999999994</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -564,10 +564,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>-11.314</v>
+        <v>-8.4849999999999994</v>
       </c>
       <c r="B15">
-        <v>-11.314</v>
+        <v>-8.4849999999999994</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -578,7 +578,7 @@
         <v>0</v>
       </c>
       <c r="B16">
-        <v>-16</v>
+        <v>-12</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -586,10 +586,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>11.314</v>
+        <v>8.4849999999999994</v>
       </c>
       <c r="B17">
-        <v>-11.314</v>
+        <v>8.4849999999999994</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -600,7 +600,7 @@
         <v>0</v>
       </c>
       <c r="B18">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -608,10 +608,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>11.314</v>
+        <v>8.4849999999999994</v>
       </c>
       <c r="B19">
-        <v>11.314</v>
+        <v>8.4849999999999994</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -619,7 +619,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -630,10 +630,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>-11.314</v>
+        <v>-8.4849999999999994</v>
       </c>
       <c r="B21">
-        <v>11.314</v>
+        <v>8.4849999999999994</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -641,7 +641,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>-16</v>
+        <v>-12</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -652,10 +652,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>-11.314</v>
+        <v>-8.4849999999999994</v>
       </c>
       <c r="B23">
-        <v>-11.314</v>
+        <v>-8.4849999999999994</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -663,10 +663,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>11.314</v>
+        <v>8.4849999999999994</v>
       </c>
       <c r="B24">
-        <v>-11.314</v>
+        <v>-8.4849999999999994</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="B25">
-        <v>-16</v>
+        <v>-12</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -685,10 +685,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>-11.314</v>
+        <v>-8.4849999999999994</v>
       </c>
       <c r="B26">
-        <v>11.314</v>
+        <v>8.4849999999999994</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -696,10 +696,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>11.314</v>
+        <v>8.4849999999999994</v>
       </c>
       <c r="B27">
-        <v>11.314</v>
+        <v>8.4849999999999994</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="B28">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="B29">
-        <v>-16</v>
+        <v>-12</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -729,7 +729,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>-16</v>
+        <v>-12</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -740,10 +740,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>-11.314</v>
+        <v>-8.4849999999999994</v>
       </c>
       <c r="B31">
-        <v>-11.314</v>
+        <v>-8.4849999999999994</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -751,7 +751,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -762,10 +762,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>11.314</v>
+        <v>8.4849999999999994</v>
       </c>
       <c r="B33">
-        <v>-11.314</v>
+        <v>-8.4849999999999994</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -776,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="B34">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -784,10 +784,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>11.314</v>
+        <v>8.4849999999999994</v>
       </c>
       <c r="B35">
-        <v>11.314</v>
+        <v>8.4849999999999994</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -795,7 +795,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -806,10 +806,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>-11.314</v>
+        <v>-8.4849999999999994</v>
       </c>
       <c r="B37">
-        <v>11.314</v>
+        <v>8.4849999999999994</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -817,7 +817,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>-16</v>
+        <v>-12</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="B39">
-        <v>-16</v>
+        <v>-12</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -839,10 +839,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>11.314</v>
+        <v>8.4849999999999994</v>
       </c>
       <c r="B40">
-        <v>-11.314</v>
+        <v>-8.4849999999999994</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -850,10 +850,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>-11.314</v>
+        <v>-8.4849999999999994</v>
       </c>
       <c r="B41">
-        <v>-11.314</v>
+        <v>-8.4849999999999994</v>
       </c>
       <c r="C41">
         <v>1</v>
